--- a/Donnees_ben_pop.xlsx
+++ b/Donnees_ben_pop.xlsx
@@ -441,47 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Année</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Population, as of 1 July (thousands)</t>
+          <t>Population 1er Juin</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Male Population, as of 1 July (thousands)</t>
+          <t>Population Masculine 1er Juin</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Female Population, as of 1 July (thousands)</t>
+          <t>Population Féminine 1er Juin</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Births (thousands)</t>
+          <t>Naissances</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Total Deaths (thousands)</t>
+          <t>Décès</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Life Expectancy at Birth, both sexes (years)</t>
+          <t>Espérance de vie à la naissance</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Net Number of Migrants (thousands)</t>
+          <t>Solde migratoire</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Net Migration Rate (per 1,000 population)</t>
+          <t>Taux de migration net</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
